--- a/QuanLyKho/Templates/phieusudung.xlsx
+++ b/QuanLyKho/Templates/phieusudung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Công ty ….. (tên của từng đơn vị)</t>
   </si>
@@ -62,20 +62,17 @@
   </si>
   <si>
     <t xml:space="preserve">từ ngày …. tháng …. năm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">đến ngày …. tháng …. năm </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -210,13 +207,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -224,7 +226,51 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -233,12 +279,10 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -249,56 +293,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -377,7 +371,7 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -407,12 +401,12 @@
   <autoFilter ref="A8:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="STT" dataDxfId="6"/>
-    <tableColumn id="2" name="Tên vật tư" dataDxfId="5"/>
-    <tableColumn id="3" name="Đơn vị tính" dataDxfId="4"/>
-    <tableColumn id="4" name="Số lượng" dataDxfId="3"/>
-    <tableColumn id="5" name="Đơn giá" dataDxfId="2"/>
-    <tableColumn id="6" name="Thành tiền" dataDxfId="1"/>
-    <tableColumn id="7" name="Máy sử dụng" dataDxfId="0"/>
+    <tableColumn id="2" name="Tên vật tư" dataDxfId="2"/>
+    <tableColumn id="3" name="Đơn vị tính" dataDxfId="0"/>
+    <tableColumn id="4" name="Số lượng" dataDxfId="1"/>
+    <tableColumn id="5" name="Đơn giá" dataDxfId="5"/>
+    <tableColumn id="6" name="Thành tiền" dataDxfId="4"/>
+    <tableColumn id="7" name="Máy sử dụng" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,10 +487,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,7 +521,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -704,30 +696,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -738,31 +730,28 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:7" ht="20.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11"/>
+    <row r="6" spans="1:7">
+      <c r="F6" s="9"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -785,21 +774,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>10</v>
       </c>

--- a/QuanLyKho/Templates/phieusudung.xlsx
+++ b/QuanLyKho/Templates/phieusudung.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,13 +55,13 @@
     <t>Người nhận hàng</t>
   </si>
   <si>
-    <t>BÁO CÁO SỬ DỤNG VẬT TƯ</t>
-  </si>
-  <si>
     <t>Địa chỉ:</t>
   </si>
   <si>
     <t xml:space="preserve">từ ngày …. tháng …. năm </t>
+  </si>
+  <si>
+    <t>PHIẾU SỬ DỤNG VẬT TƯ</t>
   </si>
 </sst>
 </file>
@@ -211,13 +211,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -231,49 +231,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="hair">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="hair">
           <color indexed="64"/>
@@ -309,6 +266,49 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="hair">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -401,12 +401,12 @@
   <autoFilter ref="A8:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="STT" dataDxfId="6"/>
-    <tableColumn id="2" name="Tên vật tư" dataDxfId="2"/>
-    <tableColumn id="3" name="Đơn vị tính" dataDxfId="0"/>
-    <tableColumn id="4" name="Số lượng" dataDxfId="1"/>
-    <tableColumn id="5" name="Đơn giá" dataDxfId="5"/>
-    <tableColumn id="6" name="Thành tiền" dataDxfId="4"/>
-    <tableColumn id="7" name="Máy sử dụng" dataDxfId="3"/>
+    <tableColumn id="2" name="Tên vật tư" dataDxfId="5"/>
+    <tableColumn id="3" name="Đơn vị tính" dataDxfId="4"/>
+    <tableColumn id="4" name="Số lượng" dataDxfId="3"/>
+    <tableColumn id="5" name="Đơn giá" dataDxfId="2"/>
+    <tableColumn id="6" name="Thành tiền" dataDxfId="1"/>
+    <tableColumn id="7" name="Máy sử dụng" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -700,7 +700,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -734,7 +734,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -742,7 +742,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>1</v>
@@ -777,11 +777,11 @@
     <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -792,14 +792,14 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
